--- a/Individuals.xlsx
+++ b/Individuals.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,28 +435,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>2.625808762648877</v>
+        <v>0.9221554073314403</v>
       </c>
       <c r="B2">
-        <v>0.2890050015677774</v>
+        <v>0.1311971050214</v>
       </c>
       <c r="C2">
-        <v>0.2450829650585586</v>
+        <v>0.2327419428162855</v>
       </c>
       <c r="D2">
-        <v>3.242665392399756</v>
+        <v>0.2617554992613305</v>
       </c>
       <c r="E2">
-        <v>6.904580032894194</v>
+        <v>0.7064484379268893</v>
       </c>
       <c r="F2">
-        <v>1.694983002374018</v>
+        <v>0.3399051324978568</v>
       </c>
       <c r="G2">
-        <v>1.132898986521312</v>
+        <v>0.7131432699140436</v>
       </c>
       <c r="H2">
-        <v>1.121993437936496</v>
+        <v>2.654550816936967</v>
       </c>
       <c r="I2">
         <v>500000</v>
@@ -464,57 +464,57 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0.2758965095428252</v>
+        <v>0.6321665265103154</v>
       </c>
       <c r="B3">
-        <v>0.2692103900498942</v>
+        <v>3.679008234820624</v>
       </c>
       <c r="C3">
-        <v>8.889957739153537</v>
+        <v>0.6531853927965741</v>
       </c>
       <c r="D3">
-        <v>0.4751104325761237</v>
+        <v>0.9178925336327987</v>
       </c>
       <c r="E3">
-        <v>5.504856135845784</v>
+        <v>1.065971394743967</v>
       </c>
       <c r="F3">
-        <v>1.368768309750733</v>
+        <v>3.019339841569947</v>
       </c>
       <c r="G3">
-        <v>1.612117431753161</v>
+        <v>0.1955570489658405</v>
       </c>
       <c r="H3">
-        <v>2.489073015893428</v>
+        <v>0.6129397122628455</v>
       </c>
       <c r="I3">
-        <v>500000</v>
+        <v>18803.48056329</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>0.9781030423900564</v>
+        <v>0.1274164555131041</v>
       </c>
       <c r="B4">
-        <v>0.3797489670783181</v>
+        <v>0.1480630818356224</v>
       </c>
       <c r="C4">
-        <v>0.1828965330762694</v>
+        <v>1.762470831235042</v>
       </c>
       <c r="D4">
-        <v>3.804925035960766</v>
+        <v>8.517789049524032</v>
       </c>
       <c r="E4">
-        <v>0.5422250814442784</v>
+        <v>1.551428630155939</v>
       </c>
       <c r="F4">
-        <v>2.412430625506185</v>
+        <v>0.7217048970413332</v>
       </c>
       <c r="G4">
-        <v>0.1625356134205081</v>
+        <v>3.49284784382042</v>
       </c>
       <c r="H4">
-        <v>6.779591446363326</v>
+        <v>0.4544075011092102</v>
       </c>
       <c r="I4">
         <v>500000</v>
@@ -522,28 +522,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>0.2815902974377351</v>
+        <v>0.1638224681808413</v>
       </c>
       <c r="B5">
-        <v>0.2692103900498942</v>
+        <v>2.091177449228884</v>
       </c>
       <c r="C5">
-        <v>0.1990993273876526</v>
+        <v>0.3171182706075934</v>
       </c>
       <c r="D5">
-        <v>0.4751104325761237</v>
+        <v>0.1242127501740735</v>
       </c>
       <c r="E5">
-        <v>5.504856135845784</v>
+        <v>1.17886207722746</v>
       </c>
       <c r="F5">
-        <v>1.578764198724868</v>
+        <v>5.294154910973537</v>
       </c>
       <c r="G5">
-        <v>1.612117431753161</v>
+        <v>0.4242154485407933</v>
       </c>
       <c r="H5">
-        <v>2.489073015893428</v>
+        <v>0.4700047544727203</v>
       </c>
       <c r="I5">
         <v>500000</v>
@@ -551,28 +551,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>0.9781030423900564</v>
+        <v>0.1537973287979936</v>
       </c>
       <c r="B6">
-        <v>0.3453642387926324</v>
+        <v>4.628722262296517</v>
       </c>
       <c r="C6">
-        <v>8.310200325633959</v>
+        <v>1.015169208608097</v>
       </c>
       <c r="D6">
-        <v>3.696622759440066</v>
+        <v>7.991680447700852</v>
       </c>
       <c r="E6">
-        <v>0.4852900916227896</v>
+        <v>8.538437998401516</v>
       </c>
       <c r="F6">
-        <v>2.784698488119672</v>
+        <v>3.274513499621619</v>
       </c>
       <c r="G6">
-        <v>0.1625356134205081</v>
+        <v>1.19112704662119</v>
       </c>
       <c r="H6">
-        <v>6.779591446363326</v>
+        <v>2.940998573405817</v>
       </c>
       <c r="I6">
         <v>500000</v>
@@ -580,28 +580,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2.625808762648877</v>
+        <v>0.1773140236108635</v>
       </c>
       <c r="B7">
-        <v>0.2890050015677774</v>
+        <v>3.765616697866335</v>
       </c>
       <c r="C7">
-        <v>0.2450829650585586</v>
+        <v>0.4239848887038288</v>
       </c>
       <c r="D7">
-        <v>3.242665392399756</v>
+        <v>6.211185406792145</v>
       </c>
       <c r="E7">
-        <v>6.904580032894194</v>
+        <v>9.752966039228145</v>
       </c>
       <c r="F7">
-        <v>1.694983002374018</v>
+        <v>0.5450611010231893</v>
       </c>
       <c r="G7">
-        <v>1.132898986521312</v>
+        <v>9.041065551034384</v>
       </c>
       <c r="H7">
-        <v>1.121993437936496</v>
+        <v>0.396377208625763</v>
       </c>
       <c r="I7">
         <v>500000</v>
@@ -609,28 +609,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>0.9781030423900564</v>
+        <v>0.1358079569289106</v>
       </c>
       <c r="B8">
-        <v>0.2890050015677774</v>
+        <v>0.1924430635015985</v>
       </c>
       <c r="C8">
-        <v>0.2450829650585586</v>
+        <v>0.4329941530305023</v>
       </c>
       <c r="D8">
-        <v>3.242665392399756</v>
+        <v>0.2095986730513029</v>
       </c>
       <c r="E8">
-        <v>6.904580032894194</v>
+        <v>6.444848905297842</v>
       </c>
       <c r="F8">
-        <v>1.694983002374018</v>
+        <v>0.4102277390223702</v>
       </c>
       <c r="G8">
-        <v>1.132898986521312</v>
+        <v>0.7332006855471233</v>
       </c>
       <c r="H8">
-        <v>6.779591446363326</v>
+        <v>4.643009645528116</v>
       </c>
       <c r="I8">
         <v>500000</v>
@@ -638,59 +638,668 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>2.625808762648877</v>
+        <v>4.358338571184841</v>
       </c>
       <c r="B9">
-        <v>0.3453642387926324</v>
+        <v>5.212367768254468</v>
       </c>
       <c r="C9">
-        <v>8.310200325633959</v>
+        <v>1.21965826604359</v>
       </c>
       <c r="D9">
-        <v>3.950680402641761</v>
+        <v>0.1024161626522919</v>
       </c>
       <c r="E9">
-        <v>0.4852900916227896</v>
+        <v>5.691840345865503</v>
       </c>
       <c r="F9">
-        <v>2.784698488119672</v>
+        <v>0.6372182717586791</v>
       </c>
       <c r="G9">
-        <v>0.1625356134205081</v>
+        <v>0.5764875799043456</v>
       </c>
       <c r="H9">
-        <v>1.013011385837633</v>
+        <v>0.7837498642015441</v>
       </c>
       <c r="I9">
-        <v>125491.6610661921</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2.625808762648877</v>
+        <v>1.149807460154347</v>
       </c>
       <c r="B10">
-        <v>0.2890050015677774</v>
+        <v>0.200571133889675</v>
       </c>
       <c r="C10">
-        <v>0.2450829650585586</v>
+        <v>0.1116344459737423</v>
       </c>
       <c r="D10">
-        <v>3.475811715175702</v>
+        <v>0.2230448615193054</v>
       </c>
       <c r="E10">
-        <v>6.953006178653717</v>
+        <v>3.34991336957725</v>
       </c>
       <c r="F10">
-        <v>1.694983002374018</v>
+        <v>1.329506616355992</v>
       </c>
       <c r="G10">
-        <v>1.132898986521312</v>
+        <v>1.703991326014725</v>
       </c>
       <c r="H10">
-        <v>1.121993437936496</v>
+        <v>5.759515055134059</v>
       </c>
       <c r="I10">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>0.4477887044924688</v>
+      </c>
+      <c r="B11">
+        <v>1.526785679077924</v>
+      </c>
+      <c r="C11">
+        <v>1.131433600168769</v>
+      </c>
+      <c r="D11">
+        <v>0.1412508850157457</v>
+      </c>
+      <c r="E11">
+        <v>0.3609560631636629</v>
+      </c>
+      <c r="F11">
+        <v>0.1561222130752355</v>
+      </c>
+      <c r="G11">
+        <v>0.234047673649778</v>
+      </c>
+      <c r="H11">
+        <v>0.9093594910803642</v>
+      </c>
+      <c r="I11">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>0.1832786029309735</v>
+      </c>
+      <c r="B12">
+        <v>3.765616697866335</v>
+      </c>
+      <c r="C12">
+        <v>0.4239848887038288</v>
+      </c>
+      <c r="D12">
+        <v>6.01679258341381</v>
+      </c>
+      <c r="E12">
+        <v>9.752966039228145</v>
+      </c>
+      <c r="F12">
+        <v>0.5450611010231893</v>
+      </c>
+      <c r="G12">
+        <v>9.041065551034384</v>
+      </c>
+      <c r="H12">
+        <v>0.396377208625763</v>
+      </c>
+      <c r="I12">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>0.1926427541457494</v>
+      </c>
+      <c r="B13">
+        <v>3.765616697866335</v>
+      </c>
+      <c r="C13">
+        <v>0.4239848887038288</v>
+      </c>
+      <c r="D13">
+        <v>6.211185406792145</v>
+      </c>
+      <c r="E13">
+        <v>9.752966039228145</v>
+      </c>
+      <c r="F13">
+        <v>0.5450611010231893</v>
+      </c>
+      <c r="G13">
+        <v>9.041065551034384</v>
+      </c>
+      <c r="H13">
+        <v>0.396377208625763</v>
+      </c>
+      <c r="I13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>0.1773140236108635</v>
+      </c>
+      <c r="B14">
+        <v>3.765616697866335</v>
+      </c>
+      <c r="C14">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D14">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E14">
+        <v>9.752966039228145</v>
+      </c>
+      <c r="F14">
+        <v>0.5450611010231893</v>
+      </c>
+      <c r="G14">
+        <v>9.041065551034384</v>
+      </c>
+      <c r="H14">
+        <v>0.396377208625763</v>
+      </c>
+      <c r="I14">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>0.6321665265103154</v>
+      </c>
+      <c r="B15">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C15">
+        <v>0.4239848887038288</v>
+      </c>
+      <c r="D15">
+        <v>6.211185406792145</v>
+      </c>
+      <c r="E15">
+        <v>1.161848606716859</v>
+      </c>
+      <c r="F15">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G15">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H15">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I15">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>0.5056377476720494</v>
+      </c>
+      <c r="B16">
+        <v>0.1311971050214</v>
+      </c>
+      <c r="C16">
+        <v>1.214918425947695</v>
+      </c>
+      <c r="D16">
+        <v>0.1412508850157457</v>
+      </c>
+      <c r="E16">
+        <v>0.3609560631636629</v>
+      </c>
+      <c r="F16">
+        <v>0.3412596078989607</v>
+      </c>
+      <c r="G16">
+        <v>0.234047673649778</v>
+      </c>
+      <c r="H16">
+        <v>0.9093594910803642</v>
+      </c>
+      <c r="I16">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>0.9221554073314403</v>
+      </c>
+      <c r="B17">
+        <v>1.526785679077924</v>
+      </c>
+      <c r="C17">
+        <v>0.2327419428162855</v>
+      </c>
+      <c r="D17">
+        <v>0.2617554992613305</v>
+      </c>
+      <c r="E17">
+        <v>0.7822711095836042</v>
+      </c>
+      <c r="F17">
+        <v>0.1483118533622361</v>
+      </c>
+      <c r="G17">
+        <v>0.7131432699140436</v>
+      </c>
+      <c r="H17">
+        <v>2.654550816936967</v>
+      </c>
+      <c r="I17">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>0.544331183866427</v>
+      </c>
+      <c r="B18">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C18">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D18">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E18">
+        <v>1.196768138990709</v>
+      </c>
+      <c r="F18">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G18">
+        <v>0.1798072622281671</v>
+      </c>
+      <c r="H18">
+        <v>0.5101157496289728</v>
+      </c>
+      <c r="I18">
+        <v>20796.38858701945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>0.6321665265103154</v>
+      </c>
+      <c r="B19">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C19">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D19">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E19">
+        <v>1.065971394743967</v>
+      </c>
+      <c r="F19">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G19">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H19">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I19">
+        <v>18803.48056329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>0.1638224681808413</v>
+      </c>
+      <c r="B20">
+        <v>2.091177449228884</v>
+      </c>
+      <c r="C20">
+        <v>0.4314851991104262</v>
+      </c>
+      <c r="D20">
+        <v>0.2095986730513029</v>
+      </c>
+      <c r="E20">
+        <v>6.444848905297842</v>
+      </c>
+      <c r="F20">
+        <v>5.294154910973537</v>
+      </c>
+      <c r="G20">
+        <v>0.7332006855471233</v>
+      </c>
+      <c r="H20">
+        <v>4.643009645528116</v>
+      </c>
+      <c r="I20">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>0.1358079569289106</v>
+      </c>
+      <c r="B21">
+        <v>0.1796155908656945</v>
+      </c>
+      <c r="C21">
+        <v>0.3171182706075934</v>
+      </c>
+      <c r="D21">
+        <v>0.1242127501740735</v>
+      </c>
+      <c r="E21">
+        <v>1.17886207722746</v>
+      </c>
+      <c r="F21">
+        <v>0.3954186124450437</v>
+      </c>
+      <c r="G21">
+        <v>0.4242154485407933</v>
+      </c>
+      <c r="H21">
+        <v>0.4454296504511758</v>
+      </c>
+      <c r="I21">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>0.6321665265103154</v>
+      </c>
+      <c r="B22">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C22">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D22">
+        <v>0.9380293552940425</v>
+      </c>
+      <c r="E22">
+        <v>1.065971394743967</v>
+      </c>
+      <c r="F22">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G22">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H22">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I22">
+        <v>18247.8024914475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>0.5690910350354127</v>
+      </c>
+      <c r="B23">
+        <v>3.635824583809738</v>
+      </c>
+      <c r="C23">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D23">
+        <v>1.144326291566147</v>
+      </c>
+      <c r="E23">
+        <v>1.196768138990709</v>
+      </c>
+      <c r="F23">
+        <v>3.204427287075287</v>
+      </c>
+      <c r="G23">
+        <v>0.1798072622281671</v>
+      </c>
+      <c r="H23">
+        <v>0.5101157496289728</v>
+      </c>
+      <c r="I23">
+        <v>22437.97167097143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>0.6321665265103154</v>
+      </c>
+      <c r="B24">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C24">
+        <v>0.6601498454359731</v>
+      </c>
+      <c r="D24">
+        <v>6.211185406792145</v>
+      </c>
+      <c r="E24">
+        <v>1.161848606716859</v>
+      </c>
+      <c r="F24">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G24">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H24">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I24">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>0.5304944317768238</v>
+      </c>
+      <c r="B25">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C25">
+        <v>0.4239848887038288</v>
+      </c>
+      <c r="D25">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E25">
+        <v>1.161417337537893</v>
+      </c>
+      <c r="F25">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G25">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H25">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>0.6321665265103154</v>
+      </c>
+      <c r="B26">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C26">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D26">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E26">
+        <v>1.065971394743967</v>
+      </c>
+      <c r="F26">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G26">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H26">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I26">
+        <v>18803.48056329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>0.6321665265103154</v>
+      </c>
+      <c r="B27">
+        <v>3.679008234820624</v>
+      </c>
+      <c r="C27">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D27">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E27">
+        <v>0.9583608708006532</v>
+      </c>
+      <c r="F27">
+        <v>3.019339841569947</v>
+      </c>
+      <c r="G27">
+        <v>0.1955570489658405</v>
+      </c>
+      <c r="H27">
+        <v>0.6129397122628455</v>
+      </c>
+      <c r="I27">
+        <v>18436.95659455125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>0.1358079569289106</v>
+      </c>
+      <c r="B28">
+        <v>0.1796155908656945</v>
+      </c>
+      <c r="C28">
+        <v>0.3171182706075934</v>
+      </c>
+      <c r="D28">
+        <v>0.1242127501740735</v>
+      </c>
+      <c r="E28">
+        <v>1.17886207722746</v>
+      </c>
+      <c r="F28">
+        <v>0.3954186124450437</v>
+      </c>
+      <c r="G28">
+        <v>0.4242154485407933</v>
+      </c>
+      <c r="H28">
+        <v>0.4454296504511758</v>
+      </c>
+      <c r="I28">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>0.544331183866427</v>
+      </c>
+      <c r="B29">
+        <v>3.433246997812586</v>
+      </c>
+      <c r="C29">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D29">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E29">
+        <v>1.196768138990709</v>
+      </c>
+      <c r="F29">
+        <v>3.237946105353148</v>
+      </c>
+      <c r="G29">
+        <v>0.1798072622281671</v>
+      </c>
+      <c r="H29">
+        <v>0.5101157496289728</v>
+      </c>
+      <c r="I29">
+        <v>24094.44173751709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>0.1926427541457494</v>
+      </c>
+      <c r="B30">
+        <v>3.765616697866335</v>
+      </c>
+      <c r="C30">
+        <v>0.4385368190015581</v>
+      </c>
+      <c r="D30">
+        <v>6.211185406792145</v>
+      </c>
+      <c r="E30">
+        <v>9.752966039228145</v>
+      </c>
+      <c r="F30">
+        <v>0.5450611010231893</v>
+      </c>
+      <c r="G30">
+        <v>7.718808271746401</v>
+      </c>
+      <c r="H30">
+        <v>0.396377208625763</v>
+      </c>
+      <c r="I30">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>0.1920457627324951</v>
+      </c>
+      <c r="B31">
+        <v>3.765616697866335</v>
+      </c>
+      <c r="C31">
+        <v>0.6531853927965741</v>
+      </c>
+      <c r="D31">
+        <v>0.9178925336327987</v>
+      </c>
+      <c r="E31">
+        <v>8.944571312633625</v>
+      </c>
+      <c r="F31">
+        <v>0.5796471883022513</v>
+      </c>
+      <c r="G31">
+        <v>9.041065551034384</v>
+      </c>
+      <c r="H31">
+        <v>0.396377208625763</v>
+      </c>
+      <c r="I31">
         <v>500000</v>
       </c>
     </row>

--- a/Individuals.xlsx
+++ b/Individuals.xlsx
@@ -435,28 +435,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>0.9221554073314403</v>
+        <v>0.1249138039792815</v>
       </c>
       <c r="B2">
-        <v>0.1311971050214</v>
+        <v>8.883752628431896</v>
       </c>
       <c r="C2">
-        <v>0.2327419428162855</v>
+        <v>0.5833611565967535</v>
       </c>
       <c r="D2">
-        <v>0.2617554992613305</v>
+        <v>0.4245369526623618</v>
       </c>
       <c r="E2">
-        <v>0.7064484379268893</v>
+        <v>0.4623383032050937</v>
       </c>
       <c r="F2">
-        <v>0.3399051324978568</v>
+        <v>7.335722870492972</v>
       </c>
       <c r="G2">
-        <v>0.7131432699140436</v>
+        <v>1.035829001147603</v>
       </c>
       <c r="H2">
-        <v>2.654550816936967</v>
+        <v>0.3521116378427441</v>
       </c>
       <c r="I2">
         <v>500000</v>
@@ -464,57 +464,57 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0.6321665265103154</v>
+        <v>0.1096319084203808</v>
       </c>
       <c r="B3">
-        <v>3.679008234820624</v>
+        <v>8.756046215086615</v>
       </c>
       <c r="C3">
-        <v>0.6531853927965741</v>
+        <v>3.01381904723797</v>
       </c>
       <c r="D3">
-        <v>0.9178925336327987</v>
+        <v>5.084047170234527</v>
       </c>
       <c r="E3">
-        <v>1.065971394743967</v>
+        <v>6.881548160757306</v>
       </c>
       <c r="F3">
-        <v>3.019339841569947</v>
+        <v>6.915712448149915</v>
       </c>
       <c r="G3">
-        <v>0.1955570489658405</v>
+        <v>2.867998383826134</v>
       </c>
       <c r="H3">
-        <v>0.6129397122628455</v>
+        <v>1.087160855950715</v>
       </c>
       <c r="I3">
-        <v>18803.48056329</v>
+        <v>267046.6289467596</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>0.1274164555131041</v>
+        <v>4.449508648594044</v>
       </c>
       <c r="B4">
-        <v>0.1480630818356224</v>
+        <v>1.087947499796612</v>
       </c>
       <c r="C4">
-        <v>1.762470831235042</v>
+        <v>0.9706433562616141</v>
       </c>
       <c r="D4">
-        <v>8.517789049524032</v>
+        <v>4.679006624288379</v>
       </c>
       <c r="E4">
-        <v>1.551428630155939</v>
+        <v>0.1342023580084334</v>
       </c>
       <c r="F4">
-        <v>0.7217048970413332</v>
+        <v>0.1156210791989572</v>
       </c>
       <c r="G4">
-        <v>3.49284784382042</v>
+        <v>7.631757593949079</v>
       </c>
       <c r="H4">
-        <v>0.4544075011092102</v>
+        <v>0.1402023204043531</v>
       </c>
       <c r="I4">
         <v>500000</v>
@@ -522,28 +522,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>0.1638224681808413</v>
+        <v>0.3144971827102258</v>
       </c>
       <c r="B5">
-        <v>2.091177449228884</v>
+        <v>5.9519616115656</v>
       </c>
       <c r="C5">
-        <v>0.3171182706075934</v>
+        <v>0.5005490914615217</v>
       </c>
       <c r="D5">
-        <v>0.1242127501740735</v>
+        <v>1.001398236484636</v>
       </c>
       <c r="E5">
-        <v>1.17886207722746</v>
+        <v>1.63465367310879</v>
       </c>
       <c r="F5">
-        <v>5.294154910973537</v>
+        <v>7.81614924217053</v>
       </c>
       <c r="G5">
-        <v>0.4242154485407933</v>
+        <v>0.8535765210154348</v>
       </c>
       <c r="H5">
-        <v>0.4700047544727203</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I5">
         <v>500000</v>
@@ -551,28 +551,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>0.1537973287979936</v>
+        <v>1.00377971353922</v>
       </c>
       <c r="B6">
-        <v>4.628722262296517</v>
+        <v>2.079192800048189</v>
       </c>
       <c r="C6">
-        <v>1.015169208608097</v>
+        <v>0.4839717810104286</v>
       </c>
       <c r="D6">
-        <v>7.991680447700852</v>
+        <v>0.4287838638196518</v>
       </c>
       <c r="E6">
-        <v>8.538437998401516</v>
+        <v>0.512821414392186</v>
       </c>
       <c r="F6">
-        <v>3.274513499621619</v>
+        <v>0.2114172105050461</v>
       </c>
       <c r="G6">
-        <v>1.19112704662119</v>
+        <v>9.277443988321622</v>
       </c>
       <c r="H6">
-        <v>2.940998573405817</v>
+        <v>1.389626620622999</v>
       </c>
       <c r="I6">
         <v>500000</v>
@@ -580,28 +580,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>0.1773140236108635</v>
+        <v>0.800921698404204</v>
       </c>
       <c r="B7">
-        <v>3.765616697866335</v>
+        <v>3.039606865212765</v>
       </c>
       <c r="C7">
-        <v>0.4239848887038288</v>
+        <v>4.513254830971098</v>
       </c>
       <c r="D7">
-        <v>6.211185406792145</v>
+        <v>4.826318886714652</v>
       </c>
       <c r="E7">
-        <v>9.752966039228145</v>
+        <v>1.193959280798844</v>
       </c>
       <c r="F7">
-        <v>0.5450611010231893</v>
+        <v>0.3717878964982558</v>
       </c>
       <c r="G7">
-        <v>9.041065551034384</v>
+        <v>0.1346064705984315</v>
       </c>
       <c r="H7">
-        <v>0.396377208625763</v>
+        <v>2.43910567152292</v>
       </c>
       <c r="I7">
         <v>500000</v>
@@ -609,28 +609,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>0.1358079569289106</v>
+        <v>2.96482427727034</v>
       </c>
       <c r="B8">
-        <v>0.1924430635015985</v>
+        <v>0.2744588023216045</v>
       </c>
       <c r="C8">
-        <v>0.4329941530305023</v>
+        <v>2.661204013085737</v>
       </c>
       <c r="D8">
-        <v>0.2095986730513029</v>
+        <v>1.288790024946003</v>
       </c>
       <c r="E8">
-        <v>6.444848905297842</v>
+        <v>0.2129999991149612</v>
       </c>
       <c r="F8">
-        <v>0.4102277390223702</v>
+        <v>2.590247909123632</v>
       </c>
       <c r="G8">
-        <v>0.7332006855471233</v>
+        <v>2.039343448068998</v>
       </c>
       <c r="H8">
-        <v>4.643009645528116</v>
+        <v>5.144975671817726</v>
       </c>
       <c r="I8">
         <v>500000</v>
@@ -638,57 +638,57 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>4.358338571184841</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B9">
-        <v>5.212367768254468</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C9">
-        <v>1.21965826604359</v>
+        <v>5.47273516127735</v>
       </c>
       <c r="D9">
-        <v>0.1024161626522919</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E9">
-        <v>5.691840345865503</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F9">
-        <v>0.6372182717586791</v>
+        <v>4.636265274681802</v>
       </c>
       <c r="G9">
-        <v>0.5764875799043456</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H9">
-        <v>0.7837498642015441</v>
+        <v>1.443704882143338</v>
       </c>
       <c r="I9">
-        <v>500000</v>
+        <v>125003.4126149932</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1.149807460154347</v>
+        <v>0.7971435264095877</v>
       </c>
       <c r="B10">
-        <v>0.200571133889675</v>
+        <v>0.6347565818856018</v>
       </c>
       <c r="C10">
-        <v>0.1116344459737423</v>
+        <v>0.7125041758250443</v>
       </c>
       <c r="D10">
-        <v>0.2230448615193054</v>
+        <v>0.138664998682654</v>
       </c>
       <c r="E10">
-        <v>3.34991336957725</v>
+        <v>0.4091374647713574</v>
       </c>
       <c r="F10">
-        <v>1.329506616355992</v>
+        <v>0.1467265599275362</v>
       </c>
       <c r="G10">
-        <v>1.703991326014725</v>
+        <v>0.3256167505593625</v>
       </c>
       <c r="H10">
-        <v>5.759515055134059</v>
+        <v>3.394699997747816</v>
       </c>
       <c r="I10">
         <v>500000</v>
@@ -696,28 +696,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>0.4477887044924688</v>
+        <v>1.632216906586314</v>
       </c>
       <c r="B11">
-        <v>1.526785679077924</v>
+        <v>0.1201961965106175</v>
       </c>
       <c r="C11">
-        <v>1.131433600168769</v>
+        <v>0.1031713569019312</v>
       </c>
       <c r="D11">
-        <v>0.1412508850157457</v>
+        <v>0.4727194879779035</v>
       </c>
       <c r="E11">
-        <v>0.3609560631636629</v>
+        <v>6.533273591701628</v>
       </c>
       <c r="F11">
-        <v>0.1561222130752355</v>
+        <v>0.2489150878441261</v>
       </c>
       <c r="G11">
-        <v>0.234047673649778</v>
+        <v>1.738623263342059</v>
       </c>
       <c r="H11">
-        <v>0.9093594910803642</v>
+        <v>3.737547872261515</v>
       </c>
       <c r="I11">
         <v>500000</v>
@@ -725,57 +725,57 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>0.1832786029309735</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B12">
-        <v>3.765616697866335</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C12">
-        <v>0.4239848887038288</v>
+        <v>5.47273516127735</v>
       </c>
       <c r="D12">
-        <v>6.01679258341381</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E12">
-        <v>9.752966039228145</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F12">
-        <v>0.5450611010231893</v>
+        <v>4.636265274681802</v>
       </c>
       <c r="G12">
-        <v>9.041065551034384</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H12">
-        <v>0.396377208625763</v>
+        <v>1.443704882143338</v>
       </c>
       <c r="I12">
-        <v>500000</v>
+        <v>125003.4126149932</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>0.1926427541457494</v>
+        <v>1.632216906586314</v>
       </c>
       <c r="B13">
-        <v>3.765616697866335</v>
+        <v>0.1201961965106175</v>
       </c>
       <c r="C13">
-        <v>0.4239848887038288</v>
+        <v>0.1031713569019312</v>
       </c>
       <c r="D13">
-        <v>6.211185406792145</v>
+        <v>0.4727194879779035</v>
       </c>
       <c r="E13">
-        <v>9.752966039228145</v>
+        <v>6.533273591701628</v>
       </c>
       <c r="F13">
-        <v>0.5450611010231893</v>
+        <v>0.2489150878441261</v>
       </c>
       <c r="G13">
-        <v>9.041065551034384</v>
+        <v>1.761008554444557</v>
       </c>
       <c r="H13">
-        <v>0.396377208625763</v>
+        <v>3.737547872261515</v>
       </c>
       <c r="I13">
         <v>500000</v>
@@ -783,57 +783,57 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>0.1773140236108635</v>
+        <v>0.800921698404204</v>
       </c>
       <c r="B14">
-        <v>3.765616697866335</v>
+        <v>3.039606865212765</v>
       </c>
       <c r="C14">
-        <v>0.6531853927965741</v>
+        <v>4.513254830971098</v>
       </c>
       <c r="D14">
-        <v>0.9178925336327987</v>
+        <v>1.001398236484636</v>
       </c>
       <c r="E14">
-        <v>9.752966039228145</v>
+        <v>1.249534036485032</v>
       </c>
       <c r="F14">
-        <v>0.5450611010231893</v>
+        <v>7.81614924217053</v>
       </c>
       <c r="G14">
-        <v>9.041065551034384</v>
+        <v>0.1346064705984315</v>
       </c>
       <c r="H14">
-        <v>0.396377208625763</v>
+        <v>2.43910567152292</v>
       </c>
       <c r="I14">
-        <v>500000</v>
+        <v>60153.31017125381</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>0.6321665265103154</v>
+        <v>0.3144971827102258</v>
       </c>
       <c r="B15">
-        <v>3.679008234820624</v>
+        <v>5.9519616115656</v>
       </c>
       <c r="C15">
-        <v>0.4239848887038288</v>
+        <v>0.5005490914615217</v>
       </c>
       <c r="D15">
-        <v>6.211185406792145</v>
+        <v>4.826318886714652</v>
       </c>
       <c r="E15">
-        <v>1.161848606716859</v>
+        <v>1.63465367310879</v>
       </c>
       <c r="F15">
-        <v>3.019339841569947</v>
+        <v>0.3717878964982558</v>
       </c>
       <c r="G15">
-        <v>0.1955570489658405</v>
+        <v>0.8535765210154348</v>
       </c>
       <c r="H15">
-        <v>0.6129397122628455</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I15">
         <v>500000</v>
@@ -841,28 +841,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>0.5056377476720494</v>
+        <v>0.800921698404204</v>
       </c>
       <c r="B16">
-        <v>0.1311971050214</v>
+        <v>8.883752628431896</v>
       </c>
       <c r="C16">
-        <v>1.214918425947695</v>
+        <v>0.5833611565967535</v>
       </c>
       <c r="D16">
-        <v>0.1412508850157457</v>
+        <v>0.4245369526623618</v>
       </c>
       <c r="E16">
-        <v>0.3609560631636629</v>
+        <v>0.4623383032050937</v>
       </c>
       <c r="F16">
-        <v>0.3412596078989607</v>
+        <v>7.335722870492972</v>
       </c>
       <c r="G16">
-        <v>0.234047673649778</v>
+        <v>1.035829001147603</v>
       </c>
       <c r="H16">
-        <v>0.9093594910803642</v>
+        <v>2.43910567152292</v>
       </c>
       <c r="I16">
         <v>500000</v>
@@ -870,144 +870,144 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>0.9221554073314403</v>
+        <v>0.1249138039792815</v>
       </c>
       <c r="B17">
-        <v>1.526785679077924</v>
+        <v>3.188897241707611</v>
       </c>
       <c r="C17">
-        <v>0.2327419428162855</v>
+        <v>4.513254830971098</v>
       </c>
       <c r="D17">
-        <v>0.2617554992613305</v>
+        <v>5.174525172885208</v>
       </c>
       <c r="E17">
-        <v>0.7822711095836042</v>
+        <v>1.193959280798844</v>
       </c>
       <c r="F17">
-        <v>0.1483118533622361</v>
+        <v>0.3717878964982558</v>
       </c>
       <c r="G17">
-        <v>0.7131432699140436</v>
+        <v>0.1346064705984315</v>
       </c>
       <c r="H17">
-        <v>2.654550816936967</v>
+        <v>0.3521116378427441</v>
       </c>
       <c r="I17">
-        <v>500000</v>
+        <v>124136.5983497858</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>0.544331183866427</v>
+        <v>1.632216906586314</v>
       </c>
       <c r="B18">
-        <v>3.679008234820624</v>
+        <v>0.1201961965106175</v>
       </c>
       <c r="C18">
-        <v>0.6531853927965741</v>
+        <v>0.1031713569019312</v>
       </c>
       <c r="D18">
-        <v>0.9178925336327987</v>
+        <v>0.4727194879779035</v>
       </c>
       <c r="E18">
-        <v>1.196768138990709</v>
+        <v>6.533273591701628</v>
       </c>
       <c r="F18">
-        <v>3.019339841569947</v>
+        <v>0.2489150878441261</v>
       </c>
       <c r="G18">
-        <v>0.1798072622281671</v>
+        <v>1.738623263342059</v>
       </c>
       <c r="H18">
-        <v>0.5101157496289728</v>
+        <v>4.042069096649466</v>
       </c>
       <c r="I18">
-        <v>20796.38858701945</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>0.6321665265103154</v>
+        <v>4.449508648594044</v>
       </c>
       <c r="B19">
-        <v>3.679008234820624</v>
+        <v>1.087947499796612</v>
       </c>
       <c r="C19">
-        <v>0.6531853927965741</v>
+        <v>0.9706433562616141</v>
       </c>
       <c r="D19">
-        <v>0.9178925336327987</v>
+        <v>4.679006624288379</v>
       </c>
       <c r="E19">
-        <v>1.065971394743967</v>
+        <v>0.1342023580084334</v>
       </c>
       <c r="F19">
-        <v>3.019339841569947</v>
+        <v>0.1285321940561394</v>
       </c>
       <c r="G19">
-        <v>0.1955570489658405</v>
+        <v>7.631757593949079</v>
       </c>
       <c r="H19">
-        <v>0.6129397122628455</v>
+        <v>0.1402023204043531</v>
       </c>
       <c r="I19">
-        <v>18803.48056329</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>0.1638224681808413</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B20">
-        <v>2.091177449228884</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C20">
-        <v>0.4314851991104262</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D20">
-        <v>0.2095986730513029</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E20">
-        <v>6.444848905297842</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F20">
-        <v>5.294154910973537</v>
+        <v>9.224127963918587</v>
       </c>
       <c r="G20">
-        <v>0.7332006855471233</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H20">
-        <v>4.643009645528116</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I20">
-        <v>500000</v>
+        <v>35284.03910902607</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>0.1358079569289106</v>
+        <v>0.3079102143037616</v>
       </c>
       <c r="B21">
-        <v>0.1796155908656945</v>
+        <v>5.9519616115656</v>
       </c>
       <c r="C21">
-        <v>0.3171182706075934</v>
+        <v>0.5005490914615217</v>
       </c>
       <c r="D21">
-        <v>0.1242127501740735</v>
+        <v>1.001398236484636</v>
       </c>
       <c r="E21">
-        <v>1.17886207722746</v>
+        <v>1.63465367310879</v>
       </c>
       <c r="F21">
-        <v>0.3954186124450437</v>
+        <v>4.636265274681802</v>
       </c>
       <c r="G21">
-        <v>0.4242154485407933</v>
+        <v>0.8535765210154348</v>
       </c>
       <c r="H21">
-        <v>0.4454296504511758</v>
+        <v>1.563830209788876</v>
       </c>
       <c r="I21">
         <v>500000</v>
@@ -1015,292 +1015,292 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>0.6321665265103154</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B22">
-        <v>3.679008234820624</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C22">
-        <v>0.6531853927965741</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D22">
-        <v>0.9380293552940425</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E22">
-        <v>1.065971394743967</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F22">
-        <v>3.019339841569947</v>
+        <v>9.224127963918587</v>
       </c>
       <c r="G22">
-        <v>0.1955570489658405</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H22">
-        <v>0.6129397122628455</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I22">
-        <v>18247.8024914475</v>
+        <v>35284.03910902607</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>0.5690910350354127</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B23">
-        <v>3.635824583809738</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C23">
-        <v>0.6531853927965741</v>
+        <v>5.314478895879396</v>
       </c>
       <c r="D23">
-        <v>1.144326291566147</v>
+        <v>1.888225738635345</v>
       </c>
       <c r="E23">
-        <v>1.196768138990709</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F23">
-        <v>3.204427287075287</v>
+        <v>4.636265274681802</v>
       </c>
       <c r="G23">
-        <v>0.1798072622281671</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H23">
-        <v>0.5101157496289728</v>
+        <v>1.443704882143338</v>
       </c>
       <c r="I23">
-        <v>22437.97167097143</v>
+        <v>118811.7591368057</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>0.6321665265103154</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B24">
-        <v>3.679008234820624</v>
+        <v>0.3046206014340728</v>
       </c>
       <c r="C24">
-        <v>0.6601498454359731</v>
+        <v>5.47273516127735</v>
       </c>
       <c r="D24">
-        <v>6.211185406792145</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E24">
-        <v>1.161848606716859</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F24">
-        <v>3.019339841569947</v>
+        <v>4.636265274681802</v>
       </c>
       <c r="G24">
-        <v>0.1955570489658405</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H24">
-        <v>0.6129397122628455</v>
+        <v>1.466714940395635</v>
       </c>
       <c r="I24">
-        <v>500000</v>
+        <v>571505.0414436604</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>0.5304944317768238</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B25">
-        <v>3.679008234820624</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C25">
-        <v>0.4239848887038288</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D25">
-        <v>0.9178925336327987</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E25">
-        <v>1.161417337537893</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F25">
-        <v>3.019339841569947</v>
+        <v>8.452104747182693</v>
       </c>
       <c r="G25">
-        <v>0.1955570489658405</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H25">
-        <v>0.6129397122628455</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I25">
-        <v>500000</v>
+        <v>24016.27418681873</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>0.6321665265103154</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B26">
-        <v>3.679008234820624</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C26">
-        <v>0.6531853927965741</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D26">
-        <v>0.9178925336327987</v>
+        <v>1.791053964528807</v>
       </c>
       <c r="E26">
-        <v>1.065971394743967</v>
+        <v>0.1544398596983103</v>
       </c>
       <c r="F26">
-        <v>3.019339841569947</v>
+        <v>9.224127963918587</v>
       </c>
       <c r="G26">
-        <v>0.1955570489658405</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H26">
-        <v>0.6129397122628455</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I26">
-        <v>18803.48056329</v>
+        <v>88573.83735274515</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>0.6321665265103154</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B27">
-        <v>3.679008234820624</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C27">
-        <v>0.6531853927965741</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D27">
-        <v>0.9178925336327987</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E27">
-        <v>0.9583608708006532</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F27">
-        <v>3.019339841569947</v>
+        <v>9.224127963918587</v>
       </c>
       <c r="G27">
-        <v>0.1955570489658405</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H27">
-        <v>0.6129397122628455</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I27">
-        <v>18436.95659455125</v>
+        <v>35284.03910902607</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>0.1358079569289106</v>
+        <v>0.3144971827102258</v>
       </c>
       <c r="B28">
-        <v>0.1796155908656945</v>
+        <v>5.9519616115656</v>
       </c>
       <c r="C28">
-        <v>0.3171182706075934</v>
+        <v>4.486298857858507</v>
       </c>
       <c r="D28">
-        <v>0.1242127501740735</v>
+        <v>4.826318886714652</v>
       </c>
       <c r="E28">
-        <v>1.17886207722746</v>
+        <v>1.249534036485032</v>
       </c>
       <c r="F28">
-        <v>0.3954186124450437</v>
+        <v>7.81614924217053</v>
       </c>
       <c r="G28">
-        <v>0.4242154485407933</v>
+        <v>0.8535765210154348</v>
       </c>
       <c r="H28">
-        <v>0.4454296504511758</v>
+        <v>2.43910567152292</v>
       </c>
       <c r="I28">
-        <v>500000</v>
+        <v>52066.13192101279</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>0.544331183866427</v>
+        <v>0.800921698404204</v>
       </c>
       <c r="B29">
-        <v>3.433246997812586</v>
+        <v>3.039606865212765</v>
       </c>
       <c r="C29">
-        <v>0.6531853927965741</v>
+        <v>0.5005490914615217</v>
       </c>
       <c r="D29">
-        <v>0.9178925336327987</v>
+        <v>1.001398236484636</v>
       </c>
       <c r="E29">
-        <v>1.196768138990709</v>
+        <v>1.650126879151881</v>
       </c>
       <c r="F29">
-        <v>3.237946105353148</v>
+        <v>0.4106905940478398</v>
       </c>
       <c r="G29">
-        <v>0.1798072622281671</v>
+        <v>0.1346064705984315</v>
       </c>
       <c r="H29">
-        <v>0.5101157496289728</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I29">
-        <v>24094.44173751709</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>0.1926427541457494</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B30">
-        <v>3.765616697866335</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C30">
-        <v>0.4385368190015581</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D30">
-        <v>6.211185406792145</v>
+        <v>1.570316838332387</v>
       </c>
       <c r="E30">
-        <v>9.752966039228145</v>
+        <v>0.1513515335631602</v>
       </c>
       <c r="F30">
-        <v>0.5450611010231893</v>
+        <v>8.669486517339124</v>
       </c>
       <c r="G30">
-        <v>7.718808271746401</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H30">
-        <v>0.396377208625763</v>
+        <v>3.851066440073002</v>
       </c>
       <c r="I30">
-        <v>500000</v>
+        <v>72782.00581084518</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>0.1920457627324951</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B31">
-        <v>3.765616697866335</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C31">
-        <v>0.6531853927965741</v>
+        <v>4.438102736504392</v>
       </c>
       <c r="D31">
-        <v>0.9178925336327987</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E31">
-        <v>8.944571312633625</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F31">
-        <v>0.5796471883022513</v>
+        <v>8.736931070016722</v>
       </c>
       <c r="G31">
-        <v>9.041065551034384</v>
+        <v>8.385117202717646</v>
       </c>
       <c r="H31">
-        <v>0.396377208625763</v>
+        <v>4.059061031363553</v>
       </c>
       <c r="I31">
-        <v>500000</v>
+        <v>30239.55652131807</v>
       </c>
     </row>
   </sheetData>
